--- a/125/125.xlsx
+++ b/125/125.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alameheli\Desktop\scores\mft-scores\125\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\125\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F860C9A-99EA-4D9B-A8D0-3F2969575979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BE669-85D5-4272-B2DE-28FDA1BBB4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web 125" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -71,6 +69,15 @@
   </si>
   <si>
     <t>Project (55)</t>
+  </si>
+  <si>
+    <t>Q02</t>
+  </si>
+  <si>
+    <t>Q03</t>
+  </si>
+  <si>
+    <t>Q04</t>
   </si>
 </sst>
 </file>
@@ -573,7 +580,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,9 +618,15 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -642,9 +655,17 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="4">
+        <f>(5/15)*10</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>(10/25)*10</f>
+        <v>4</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -682,9 +703,15 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -723,9 +750,17 @@
         <f>(14/25)*10</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="4">
+        <f>(7/15)*10</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(12/25)*10</f>
+        <v>4.8</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -764,9 +799,15 @@
         <f>(8/25)*10</f>
         <v>3.2</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -805,9 +846,18 @@
         <f>(22/25)*10</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="4">
+        <f>(12/15)*10</f>
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(16.5/30)*10</f>
+        <v>5.5</v>
+      </c>
+      <c r="I6" s="4">
+        <f>(22/25)*10</f>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -845,9 +895,15 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -997,9 +1053,15 @@
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1037,9 +1099,15 @@
       <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1105,9 +1173,15 @@
       <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1146,9 +1220,18 @@
         <f>(19/25)*10</f>
         <v>7.6</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="6">
+        <f>(9/15)*10</f>
+        <v>6</v>
+      </c>
+      <c r="H16" s="6">
+        <f>(25.5/30)*10</f>
+        <v>8.5</v>
+      </c>
+      <c r="I16" s="6">
+        <f>(18/25)*10</f>
+        <v>7.1999999999999993</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1187,9 +1270,18 @@
         <f>(23/25)*10</f>
         <v>9.2000000000000011</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="6">
+        <f>(15/15)*10</f>
+        <v>10</v>
+      </c>
+      <c r="H17" s="6">
+        <f>(25.5/30)*10</f>
+        <v>8.5</v>
+      </c>
+      <c r="I17" s="6">
+        <f>(23/25)*10</f>
+        <v>9.2000000000000011</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="5"/>
@@ -1214,7 +1306,7 @@
       </c>
       <c r="B18" s="8">
         <f>COUNTA(B1:Q1) * 10</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -1248,7 +1340,7 @@
       </c>
       <c r="B22" s="13">
         <f>(SUM(B2:R2)/B18) * 45</f>
-        <v>9</v>
+        <v>9.7499999999999982</v>
       </c>
       <c r="C22" s="14">
         <v>5</v>
@@ -1258,11 +1350,11 @@
       </c>
       <c r="E22" s="15">
         <f>B22+C22+D22</f>
-        <v>14</v>
+        <v>14.749999999999998</v>
       </c>
       <c r="F22" s="16">
         <f t="shared" ref="F22:F35" si="0">E22</f>
-        <v>14</v>
+        <v>14.749999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -1294,7 +1386,7 @@
       </c>
       <c r="B24" s="13">
         <f>(SUM(B4:R4)/B18) * 45</f>
-        <v>13.140000000000002</v>
+        <v>13.537500000000003</v>
       </c>
       <c r="C24" s="14">
         <v>6</v>
@@ -1304,11 +1396,11 @@
       </c>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
-        <v>19.14</v>
+        <v>19.537500000000001</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" si="0"/>
-        <v>19.14</v>
+        <v>19.537500000000001</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -1317,7 +1409,7 @@
       </c>
       <c r="B25" s="13">
         <f>(SUM(B5:R5)/B18) * 45</f>
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="C25" s="14">
         <v>0</v>
@@ -1327,11 +1419,11 @@
       </c>
       <c r="E25" s="15">
         <f t="shared" si="1"/>
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" si="0"/>
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -1340,7 +1432,7 @@
       </c>
       <c r="B26" s="13">
         <f>(SUM(B6:R6)/B18) * 45</f>
-        <v>42.57</v>
+        <v>39.149999999999991</v>
       </c>
       <c r="C26" s="14">
         <v>9</v>
@@ -1350,11 +1442,11 @@
       </c>
       <c r="E26" s="15">
         <f t="shared" si="1"/>
-        <v>51.57</v>
+        <v>48.149999999999991</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" si="0"/>
-        <v>51.57</v>
+        <v>48.149999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -1495,7 +1587,7 @@
       </c>
       <c r="B36" s="13">
         <f>(SUM(B16:R16)/B18) * 45</f>
-        <v>41.49</v>
+        <v>38.137499999999996</v>
       </c>
       <c r="C36" s="14">
         <v>9</v>
@@ -1505,11 +1597,11 @@
       </c>
       <c r="E36" s="15">
         <f>B36+C36+D36</f>
-        <v>50.49</v>
+        <v>47.137499999999996</v>
       </c>
       <c r="F36" s="16">
         <f>E36</f>
-        <v>50.49</v>
+        <v>47.137499999999996</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,7 +1610,7 @@
       </c>
       <c r="B37" s="13">
         <f>(SUM(B17:R17)/B18) * 45</f>
-        <v>39.78</v>
+        <v>40.443750000000001</v>
       </c>
       <c r="C37" s="14">
         <v>10</v>
@@ -1528,11 +1620,11 @@
       </c>
       <c r="E37" s="15">
         <f>B37+C37+D37</f>
-        <v>49.78</v>
+        <v>50.443750000000001</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" ref="F36:F37" si="2">E37</f>
-        <v>49.78</v>
+        <f t="shared" ref="F37" si="2">E37</f>
+        <v>50.443750000000001</v>
       </c>
     </row>
   </sheetData>

--- a/125/125.xlsx
+++ b/125/125.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\125\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alameheli\Desktop\scores\mft-scores\125\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BE669-85D5-4272-B2DE-28FDA1BBB4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87DA318-AA54-49C4-B7CD-59741BFD823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web 125" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -579,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,15 +1541,15 @@
         <v>0</v>
       </c>
       <c r="D33" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F33" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1593,15 +1595,15 @@
         <v>9</v>
       </c>
       <c r="D36" s="14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E36" s="15">
         <f>B36+C36+D36</f>
-        <v>47.137499999999996</v>
+        <v>102.13749999999999</v>
       </c>
       <c r="F36" s="16">
         <f>E36</f>
-        <v>47.137499999999996</v>
+        <v>102.13749999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,15 +1618,15 @@
         <v>10</v>
       </c>
       <c r="D37" s="14">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E37" s="15">
         <f>B37+C37+D37</f>
-        <v>50.443750000000001</v>
+        <v>98.443749999999994</v>
       </c>
       <c r="F37" s="16">
         <f t="shared" ref="F37" si="2">E37</f>
-        <v>50.443750000000001</v>
+        <v>98.443749999999994</v>
       </c>
     </row>
   </sheetData>

--- a/125/125.xlsx
+++ b/125/125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alameheli\Desktop\scores\mft-scores\125\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87DA318-AA54-49C4-B7CD-59741BFD823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92D76BE-6D6E-43B7-85AF-6B0A2B6F1FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,12 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -173,18 +173,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -192,11 +186,8 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +573,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +758,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -791,17 +782,17 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <f>(8/25)*10</f>
         <v>3.2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="4">
@@ -814,7 +805,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -864,7 +855,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -882,35 +873,35 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -926,19 +917,19 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -954,19 +945,19 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -982,19 +973,19 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -1010,19 +1001,19 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -1040,35 +1031,35 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -1086,35 +1077,35 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -1130,19 +1121,19 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1160,35 +1151,35 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1206,39 +1197,39 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>9.5</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>9.5</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>9.5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <f>(19/25)*10</f>
         <v>7.6</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <f>(9/15)*10</f>
         <v>6</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <f>(25.5/30)*10</f>
         <v>8.5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
         <f>(18/25)*10</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1256,36 +1247,36 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>10</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>7</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <f>(23/25)*10</f>
         <v>9.2000000000000011</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <f>(15/15)*10</f>
         <v>10</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <f>(25.5/30)*10</f>
         <v>8.5</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <f>(23/25)*10</f>
         <v>9.2000000000000011</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1303,328 +1294,328 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f>COUNTA(B1:Q1) * 10</f>
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>1</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <f>(SUM(B2:R2)/B18) * 45</f>
         <v>9.7499999999999982</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <v>5</v>
       </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
         <f>B22+C22+D22</f>
         <v>14.749999999999998</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="14">
         <f t="shared" ref="F22:F35" si="0">E22</f>
         <v>14.749999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>2</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <f>(SUM(B3:R3)/B18) * 45</f>
         <v>0</v>
       </c>
-      <c r="C23" s="14">
-        <v>0</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
         <f t="shared" ref="E23:E35" si="1">B23+C23+D23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <v>3</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <f>(SUM(B4:R4)/B18) * 45</f>
         <v>13.537500000000003</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>6</v>
       </c>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
         <f t="shared" si="1"/>
         <v>19.537500000000001</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="14">
         <f t="shared" si="0"/>
         <v>19.537500000000001</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>4</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="11">
         <f>(SUM(B5:R5)/B18) * 45</f>
         <v>1.8</v>
       </c>
-      <c r="C25" s="14">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="14">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="11">
         <f>(SUM(B6:R6)/B18) * 45</f>
         <v>39.149999999999991</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <v>9</v>
       </c>
-      <c r="D26" s="14">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26" s="12">
+        <v>50</v>
+      </c>
+      <c r="E26" s="13">
         <f t="shared" si="1"/>
-        <v>48.149999999999991</v>
-      </c>
-      <c r="F26" s="16">
+        <v>98.149999999999991</v>
+      </c>
+      <c r="F26" s="14">
         <f t="shared" si="0"/>
-        <v>48.149999999999991</v>
+        <v>98.149999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>6</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <f>(SUM(B7:R7)/B18) * 45</f>
         <v>0</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>5</v>
       </c>
-      <c r="D27" s="14">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="8">
         <v>11</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <f>(SUM(B12:R12)/B18) * 45</f>
         <v>0</v>
       </c>
-      <c r="C32" s="14">
-        <v>0</v>
-      </c>
-      <c r="D32" s="14">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15">
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="8">
         <v>12</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <f>(SUM(B13:R13)/B18) * 45</f>
         <v>0</v>
       </c>
-      <c r="C33" s="14">
-        <v>0</v>
-      </c>
-      <c r="D33" s="14">
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
         <v>50</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="13">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <v>14</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <f>(SUM(B15:R15)/B18) * 45</f>
         <v>0</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <v>6</v>
       </c>
-      <c r="D35" s="14">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="8">
         <v>15</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <f>(SUM(B16:R16)/B18) * 45</f>
         <v>38.137499999999996</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="12">
         <v>9</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>55</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="13">
         <f>B36+C36+D36</f>
         <v>102.13749999999999</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="14">
         <f>E36</f>
         <v>102.13749999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="8">
         <v>16</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="11">
         <f>(SUM(B17:R17)/B18) * 45</f>
         <v>40.443750000000001</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <v>10</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>48</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="13">
         <f>B37+C37+D37</f>
         <v>98.443749999999994</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="14">
         <f t="shared" ref="F37" si="2">E37</f>
         <v>98.443749999999994</v>
       </c>
